--- a/AT60.xlsx
+++ b/AT60.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
   <si>
     <t>Problem</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>https://youtu.be/J2qbhC68PDE</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
@@ -525,10 +528,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -563,6 +566,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -570,22 +580,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +626,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -646,14 +656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -662,7 +664,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,19 +678,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -777,157 +780,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,17 +941,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -993,6 +985,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1015,15 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1043,18 +1046,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,131 +1067,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,10 +1243,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1621,786 +1636,797 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="17" t="s">
         <v>48</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="18" t="s">
         <v>58</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" s="7" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" s="7" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" s="7" customFormat="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>68</v>
+      <c r="E24" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" s="7" customFormat="1" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>75</v>
+      <c r="E27" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="1" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="1" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" spans="1:5">
       <c r="A35" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="1" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" s="10" customFormat="1" spans="1:5">
       <c r="A43" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:5">
       <c r="A44" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" s="10" customFormat="1" spans="1:5">
       <c r="A45" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" s="10" customFormat="1" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" s="12" customFormat="1" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" s="12" customFormat="1" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" s="12" customFormat="1" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" s="12" customFormat="1" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:5">
       <c r="A56" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" spans="1:5">
       <c r="A57" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" spans="1:5">
       <c r="A58" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" spans="1:5">
       <c r="A59" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" spans="1:5">
       <c r="A60" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" s="11" customFormat="1" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://leetcode.com/problems/two-sum/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://leetcode.com/problems/longest-consecutive-sequence/"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://leetcode.com/problems/valid-palindrome/"/>
-    <hyperlink ref="E20" r:id="rId5" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/"/>
-    <hyperlink ref="E17" r:id="rId6" display="https://leetcode.com/problems/largest-rectangle-in-histogram/"/>
-    <hyperlink ref="E16" r:id="rId7" display="https://leetcode.com/problems/car-fleet/"/>
+    <hyperlink ref="E17" r:id="rId1" display="https://leetcode.com/problems/largest-rectangle-in-histogram/"/>
+    <hyperlink ref="E16" r:id="rId2" display="https://leetcode.com/problems/car-fleet/"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="E4" r:id="rId4" display="https://leetcode.com/problems/longest-consecutive-sequence/"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="E2" r:id="rId6" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="E20" r:id="rId7" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/"/>
+    <hyperlink ref="E24" r:id="rId8" display="https://leetcode.com/problems/copy-list-with-random-pointer/"/>
+    <hyperlink ref="E27" r:id="rId9" display="https://leetcode.com/problems/insert-interval/"/>
+    <hyperlink ref="E25" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists/"/>
+    <hyperlink ref="E8" r:id="rId11" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="E7" r:id="rId12" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="E10" r:id="rId14" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/AT60.xlsx
+++ b/AT60.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="170">
   <si>
     <t>Problem</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FhTBdxB0OuY</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
@@ -528,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -579,10 +582,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,32 +628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,23 +644,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +676,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,6 +688,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -780,12 +783,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -798,139 +813,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,6 +944,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -963,32 +981,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1041,153 +1033,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1582,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1650,762 +1653,765 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" s="7" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" s="7" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" s="7" customFormat="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" s="7" customFormat="1" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" s="7" customFormat="1" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="1" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="1" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:5">
       <c r="A33" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="1" spans="1:5">
       <c r="A35" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="1" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" s="10" customFormat="1" spans="1:5">
       <c r="A43" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:5">
       <c r="A44" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" s="10" customFormat="1" spans="1:5">
       <c r="A45" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" s="10" customFormat="1" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" s="12" customFormat="1" spans="1:5">
       <c r="A52" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" s="12" customFormat="1" spans="1:5">
       <c r="A53" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" s="12" customFormat="1" spans="1:5">
       <c r="A54" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" s="12" customFormat="1" spans="1:5">
       <c r="A55" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:5">
       <c r="A56" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" spans="1:5">
       <c r="A57" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" spans="1:5">
       <c r="A58" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" spans="1:5">
       <c r="A59" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" spans="1:5">
       <c r="A60" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" s="11" customFormat="1" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
